--- a/biology/Zoologie/Buthus_halius/Buthus_halius.xlsx
+++ b/biology/Zoologie/Buthus_halius/Buthus_halius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus halius est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Portugal[1]. Elle se rencontre dans les régions Nord et Centre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Portugal. Elle se rencontre dans les régions Nord et Centre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 67 mm et les femelles de 76 à 79 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 67 mm et les femelles de 76 à 79 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus halius par C. L. Koch en 1839. Elle est placée en synonymie avec Buthus occitanus par Simon en 1879[3]. Elle est relevée de synonymie par Teruel et Turiel en 2021[2].
-Buthus lusitanus[4] a été placée en synonymie par Teruel et Turiel en 2022[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus halius par C. L. Koch en 1839. Elle est placée en synonymie avec Buthus occitanus par Simon en 1879. Elle est relevée de synonymie par Teruel et Turiel en 2021.
+Buthus lusitanus a été placée en synonymie par Teruel et Turiel en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1839 : Die Arachniden. Nurnberg, C.H. Zehsche Buchhandlung, vol. 5, no 1/6, p. 25-30 &amp; 125-158 (texte intégral).</t>
         </is>
